--- a/tut05/output/0401CS39.xlsx
+++ b/tut05/output/0401CS39.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.244897959183673</v>
+        <v>9.24</v>
       </c>
       <c r="C6" t="n">
-        <v>8.977272727272727</v>
+        <v>8.98</v>
       </c>
       <c r="D6" t="n">
-        <v>9.86046511627907</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>9.74468085106383</v>
+        <v>9.74</v>
       </c>
       <c r="F6" t="n">
-        <v>9.857142857142858</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>9.625</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>9.560975609756097</v>
+        <v>9.56</v>
       </c>
       <c r="I6" t="n">
         <v>9.1</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.244897959183673</v>
+        <v>9.24</v>
       </c>
       <c r="C8" t="n">
-        <v>9.118279569892474</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>9.352941176470589</v>
+        <v>9.35</v>
       </c>
       <c r="E8" t="n">
-        <v>9.453551912568306</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>9.528888888888888</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>9.543396226415094</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>9.545751633986928</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>9.49421965317919</v>
+        <v>9.49</v>
       </c>
     </row>
   </sheetData>
